--- a/data/trans_camb/P2B_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,85; 35,5</t>
+          <t>21,22; 35,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,14; 26,12</t>
+          <t>11,07; 26,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 2,61</t>
+          <t>-9,37; 3,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,42; 38,83</t>
+          <t>21,43; 38,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,98; 33,05</t>
+          <t>15,58; 31,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 1,74</t>
+          <t>-11,41; 2,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,97; 34,77</t>
+          <t>23,97; 34,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,71; 27,81</t>
+          <t>16,21; 27,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 1,02</t>
+          <t>-8,15; 0,51</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>82,14; 192,78</t>
+          <t>83,42; 188,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,31; 137,89</t>
+          <t>41,24; 136,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,22; 13,44</t>
+          <t>-36,56; 17,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67,62; 172,89</t>
+          <t>67,26; 168,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,77; 149,31</t>
+          <t>50,57; 139,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,22; 7,62</t>
+          <t>-36,56; 10,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>89,22; 162,88</t>
+          <t>89,3; 162,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>60,96; 127,79</t>
+          <t>60,83; 129,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 5,11</t>
+          <t>-31,18; 2,46</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,1; 35,1</t>
+          <t>19,71; 35,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,86; 32,36</t>
+          <t>16,68; 32,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 4,58</t>
+          <t>-9,24; 5,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,22; 41,09</t>
+          <t>25,25; 40,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,35; 34,37</t>
+          <t>17,9; 34,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,54; 0,44</t>
+          <t>-12,81; 1,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,22; 34,73</t>
+          <t>23,99; 35,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,0; 31,59</t>
+          <t>19,38; 30,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 0,89</t>
+          <t>-8,94; 0,82</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>72,81; 193,86</t>
+          <t>72,72; 192,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>58,34; 176,02</t>
+          <t>60,86; 178,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,42; 24,32</t>
+          <t>-35,3; 27,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>70,14; 156,59</t>
+          <t>72,97; 161,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,3; 132,06</t>
+          <t>53,14; 135,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,6; 2,08</t>
+          <t>-37,54; 4,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>78,43; 148,4</t>
+          <t>80,82; 147,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>67,44; 136,84</t>
+          <t>66,21; 130,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-32,02; 3,17</t>
+          <t>-30,63; 3,72</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22,04; 34,31</t>
+          <t>21,93; 34,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,79; 26,01</t>
+          <t>13,38; 25,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 11,24</t>
+          <t>-1,41; 10,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,78; 33,69</t>
+          <t>12,67; 34,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,92; 26,42</t>
+          <t>4,05; 26,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,53; 4,27</t>
+          <t>-15,04; 3,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,33; 32,28</t>
+          <t>22,08; 32,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,37; 23,94</t>
+          <t>13,48; 24,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 7,09</t>
+          <t>-3,34; 7,35</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>83,76; 173,86</t>
+          <t>83,32; 172,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>51,68; 129,85</t>
+          <t>50,92; 130,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 57,63</t>
+          <t>-6,22; 51,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>38,38; 143,69</t>
+          <t>35,58; 147,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,9; 112,45</t>
+          <t>12,55; 117,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,93; 19,34</t>
+          <t>-44,91; 15,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>81,08; 151,83</t>
+          <t>79,79; 147,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>47,89; 109,4</t>
+          <t>47,84; 110,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 32,23</t>
+          <t>-12,3; 33,93</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>28,35; 36,74</t>
+          <t>28,6; 36,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,15; 22,04</t>
+          <t>13,07; 21,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 7,71</t>
+          <t>-1,07; 7,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>29,92; 40,37</t>
+          <t>29,17; 40,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,27; 33,34</t>
+          <t>22,0; 32,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 45,96</t>
+          <t>-4,68; 49,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>30,34; 37,21</t>
+          <t>30,49; 36,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,88; 25,53</t>
+          <t>18,72; 25,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 33,19</t>
+          <t>-0,54; 34,61</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>118,23; 186,16</t>
+          <t>119,53; 186,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>55,02; 108,34</t>
+          <t>55,02; 109,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 37,89</t>
+          <t>-4,44; 37,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>102,31; 173,71</t>
+          <t>103,03; 172,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>77,91; 144,36</t>
+          <t>76,26; 140,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 197,68</t>
+          <t>-17,75; 199,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>120,2; 167,67</t>
+          <t>120,51; 167,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>74,84; 115,46</t>
+          <t>73,96; 116,31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 153,1</t>
+          <t>-2,23; 151,01</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>21,89; 36,02</t>
+          <t>22,05; 36,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>14,19; 28,05</t>
+          <t>14,02; 27,64</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 5,3</t>
+          <t>-7,99; 6,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>25,32; 36,57</t>
+          <t>25,7; 36,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>14,8; 26,18</t>
+          <t>14,97; 26,22</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 6,59</t>
+          <t>-8,86; 6,25</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>26,22; 34,9</t>
+          <t>26,19; 34,74</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>16,1; 24,85</t>
+          <t>16,16; 24,95</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 4,61</t>
+          <t>-5,6; 4,52</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>83,17; 199,61</t>
+          <t>83,08; 204,28</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>54,06; 155,57</t>
+          <t>52,0; 153,79</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-32,69; 29,4</t>
+          <t>-30,78; 33,77</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>85,78; 162,88</t>
+          <t>88,55; 161,09</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>52,29; 117,36</t>
+          <t>49,84; 115,55</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-28,24; 27,88</t>
+          <t>-30,02; 25,7</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>95,05; 157,24</t>
+          <t>96,41; 160,6</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>59,32; 112,55</t>
+          <t>58,95; 115,78</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-22,55; 20,34</t>
+          <t>-21,01; 20,33</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>19,69; 39,23</t>
+          <t>19,63; 40,1</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>10,42; 30,1</t>
+          <t>11,2; 30,31</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 15,08</t>
+          <t>-10,14; 13,62</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>15,16; 23,8</t>
+          <t>15,28; 23,63</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,48; 18,23</t>
+          <t>9,31; 18,36</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,92; 12,98</t>
+          <t>4,96; 13,46</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>16,92; 24,78</t>
+          <t>16,91; 24,4</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>10,46; 18,51</t>
+          <t>10,61; 18,42</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,37; 11,47</t>
+          <t>3,51; 11,64</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>89,66; 306,38</t>
+          <t>83,64; 342,37</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>45,87; 249,65</t>
+          <t>47,6; 245,28</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-51,15; 117,56</t>
+          <t>-55,29; 99,99</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>57,12; 105,25</t>
+          <t>58,54; 104,41</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>35,53; 79,88</t>
+          <t>35,2; 80,63</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>18,94; 57,18</t>
+          <t>18,47; 58,29</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>66,05; 113,73</t>
+          <t>65,68; 111,46</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>40,3; 81,22</t>
+          <t>42,21; 84,42</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>13,69; 51,65</t>
+          <t>13,62; 52,81</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>27,46; 32,5</t>
+          <t>27,38; 32,35</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>17,36; 22,59</t>
+          <t>16,85; 22,23</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 3,14</t>
+          <t>-1,71; 3,29</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>25,56; 30,61</t>
+          <t>25,67; 30,54</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>18,14; 23,35</t>
+          <t>18,34; 23,4</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 20,15</t>
+          <t>-0,61; 21,86</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>27,03; 30,66</t>
+          <t>27,0; 30,64</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>18,58; 22,08</t>
+          <t>18,47; 21,98</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 12,9</t>
+          <t>-0,07; 14,49</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>117,98; 158,96</t>
+          <t>119,53; 157,3</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>74,16; 108,18</t>
+          <t>72,62; 108,41</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 14,96</t>
+          <t>-7,29; 15,69</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>91,9; 123,09</t>
+          <t>93,68; 122,9</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>65,53; 92,34</t>
+          <t>66,82; 94,53</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 78,69</t>
+          <t>-2,28; 86,64</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>107,75; 131,68</t>
+          <t>107,71; 131,58</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>73,43; 94,39</t>
+          <t>73,96; 94,44</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 54,56</t>
+          <t>-0,31; 60,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2B_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
